--- a/downloaded_files/CMPS302_Lecture-35562.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35562.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -361,6 +361,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور محمد سامح عبدالعزيز ابوسيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour mohamed sameh abdelaziz abosaif</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -530,7 +539,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +839,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2103,7 +2112,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.6501137731</x:v>
+        <x:v>45921.671350544</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45913.6501137731</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2176,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2208,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45913.7128293171</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2240,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45913.7128293171</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2263,7 +2272,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.420144213</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2280,6 +2289,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45907.420144213</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS302_Lecture-35562.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35562.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -262,15 +262,6 @@
   </x:si>
   <x:si>
     <x:t>karim wael ismaiel yousef Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230094</x:t>
@@ -539,7 +530,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -839,7 +830,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1760,7 +1751,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.6514821412</x:v>
+        <x:v>45913.7109274653</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1792,7 +1783,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.7109274653</x:v>
+        <x:v>45914.0324684375</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1824,7 +1815,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.0324684375</x:v>
+        <x:v>45913.7106008449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1856,7 +1847,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.7106008449</x:v>
+        <x:v>45909.4379437153</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1888,7 +1879,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4379437153</x:v>
+        <x:v>45906.6685710995</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1920,7 +1911,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6685710995</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1952,7 +1943,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45906.6647133102</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1984,7 +1975,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647133102</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2016,7 +2007,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2048,7 +2039,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45909.4149600694</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2080,7 +2071,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45921.671350544</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2112,7 +2103,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.671350544</x:v>
+        <x:v>45913.6501137731</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2144,7 +2135,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45913.6501137731</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2176,7 +2167,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2208,7 +2199,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45913.7128293171</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2240,7 +2231,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45913.7128293171</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2272,7 +2263,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.420144213</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2289,38 +2280,6 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45907.420144213</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS302_Lecture-35562.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35562.xlsx
@@ -1495,7 +1495,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6641871528</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1847,7 +1847,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4379437153</x:v>
+        <x:v>45927.4190604514</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>

--- a/downloaded_files/CMPS302_Lecture-35562.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35562.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -343,15 +343,6 @@
   </x:si>
   <x:si>
     <x:t>Nada Serag Mohamed Esmat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230122</x:t>
@@ -530,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1847,7 +1838,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4190604514</x:v>
+        <x:v>45928.9618944444</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2039,7 +2030,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45921.671350544</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2071,7 +2062,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45921.671350544</x:v>
+        <x:v>45913.6501137731</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2103,7 +2094,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45913.6501137731</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2126,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2158,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45913.7128293171</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45913.7128293171</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2222,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.420144213</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2248,38 +2239,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45907.420144213</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS302_Lecture-35562.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35562.xlsx
@@ -189,7 +189,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4230179</x:t>
@@ -225,7 +225,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230210</x:t>
@@ -297,7 +297,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1210416</x:t>
@@ -405,7 +405,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/downloaded_files/CMPS302_Lecture-35562.xlsx
+++ b/downloaded_files/CMPS302_Lecture-35562.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230156</x:t>
@@ -306,7 +306,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>4230175</x:t>
